--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NAC63-ACUTEC 2.5-3.5-4.0 #2.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NAC63-ACUTEC 2.5-3.5-4.0 #2.xlsx
@@ -1,46 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{78833B0B-268E-4049-9947-49D5B4DFC506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6130"/>
+    <workbookView xWindow="12990" yWindow="375" windowWidth="10365" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INQUIORT" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Asus</author>
   </authors>
   <commentList>
-    <comment ref="E7" authorId="0" shapeId="0">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -65,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -115,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0">
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -742,7 +732,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -1569,9 +1559,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Moneda 3 2" xfId="2"/>
+    <cellStyle name="Moneda 3 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1931,25 +1921,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.1796875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.453125" style="1"/>
+    <col min="1" max="1" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="52"/>
       <c r="B1" s="53"/>
       <c r="C1" s="54"/>
@@ -1958,7 +1948,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="55"/>
       <c r="B2" s="56"/>
       <c r="C2" s="103" t="s">
@@ -1971,7 +1961,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="57"/>
       <c r="B3" s="58"/>
       <c r="C3" s="104"/>
@@ -1982,7 +1972,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="57"/>
       <c r="B4" s="58"/>
       <c r="C4" s="107" t="s">
@@ -1995,7 +1985,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="61"/>
       <c r="B5" s="62"/>
       <c r="C5" s="108"/>
@@ -2006,7 +1996,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="63"/>
       <c r="B6" s="63"/>
       <c r="C6" s="63"/>
@@ -2015,14 +2005,14 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="64" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="64"/>
       <c r="C7" s="65">
         <f ca="1">NOW()</f>
-        <v>45392.560828472226</v>
+        <v>45397.825279282406</v>
       </c>
       <c r="D7" s="64" t="s">
         <v>1</v>
@@ -2033,7 +2023,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="67"/>
       <c r="B8" s="67"/>
       <c r="C8" s="67"/>
@@ -2042,7 +2032,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="64" t="s">
         <v>2</v>
       </c>
@@ -2057,7 +2047,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="67"/>
       <c r="B10" s="67"/>
       <c r="C10" s="67"/>
@@ -2066,7 +2056,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="113" t="s">
         <v>188</v>
       </c>
@@ -2083,7 +2073,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="20" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A12" s="67"/>
       <c r="B12" s="67"/>
       <c r="C12" s="67"/>
@@ -2092,7 +2082,7 @@
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
     </row>
-    <row r="13" spans="1:10" ht="20" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A13" s="64" t="s">
         <v>4</v>
       </c>
@@ -2109,7 +2099,7 @@
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
     </row>
-    <row r="14" spans="1:10" ht="20" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="67"/>
       <c r="B14" s="67"/>
       <c r="C14" s="67"/>
@@ -2121,7 +2111,7 @@
       <c r="I14" s="101"/>
       <c r="J14" s="101"/>
     </row>
-    <row r="15" spans="1:10" s="4" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="64" t="s">
         <v>7</v>
       </c>
@@ -2140,7 +2130,7 @@
       <c r="I15" s="101"/>
       <c r="J15" s="101"/>
     </row>
-    <row r="16" spans="1:10" s="4" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="67"/>
       <c r="B16" s="67"/>
       <c r="C16" s="67"/>
@@ -2149,7 +2139,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" s="4" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="64" t="s">
         <v>9</v>
       </c>
@@ -2164,7 +2154,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" s="4" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67"/>
       <c r="B18" s="67"/>
       <c r="C18" s="67"/>
@@ -2175,7 +2165,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" s="4" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="64" t="s">
         <v>10</v>
       </c>
@@ -2190,7 +2180,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" s="4" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="67"/>
       <c r="B20" s="67"/>
       <c r="C20" s="67"/>
@@ -2201,7 +2191,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" s="4" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" s="4" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="64" t="s">
         <v>194</v>
       </c>
@@ -2214,7 +2204,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" s="4" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="80"/>
       <c r="B22" s="80"/>
       <c r="C22" s="81"/>
@@ -2225,7 +2215,7 @@
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="1:10" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>11</v>
       </c>
@@ -2250,7 +2240,7 @@
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
     </row>
-    <row r="24" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
         <v>18</v>
       </c>
@@ -2272,7 +2262,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="38" t="s">
         <v>20</v>
       </c>
@@ -2294,7 +2284,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
         <v>22</v>
       </c>
@@ -2316,7 +2306,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
         <v>24</v>
       </c>
@@ -2338,7 +2328,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
         <v>26</v>
       </c>
@@ -2360,7 +2350,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="38" t="s">
         <v>28</v>
       </c>
@@ -2382,7 +2372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
         <v>30</v>
       </c>
@@ -2404,7 +2394,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="38" t="s">
         <v>32</v>
       </c>
@@ -2426,7 +2416,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
         <v>34</v>
       </c>
@@ -2448,7 +2438,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="38" t="s">
         <v>36</v>
       </c>
@@ -2470,7 +2460,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="35" t="s">
         <v>38</v>
       </c>
@@ -2492,7 +2482,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="38" t="s">
         <v>40</v>
       </c>
@@ -2517,7 +2507,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="35" t="s">
         <v>42</v>
       </c>
@@ -2539,7 +2529,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
         <v>44</v>
       </c>
@@ -2561,7 +2551,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="35" t="s">
         <v>46</v>
       </c>
@@ -2583,7 +2573,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="92" t="s">
         <v>179</v>
       </c>
@@ -2597,7 +2587,7 @@
       <c r="F39" s="90"/>
       <c r="G39" s="91"/>
     </row>
-    <row r="40" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="38" t="s">
         <v>48</v>
       </c>
@@ -2619,7 +2609,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="35" t="s">
         <v>50</v>
       </c>
@@ -2641,7 +2631,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="38" t="s">
         <v>52</v>
       </c>
@@ -2663,7 +2653,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="35" t="s">
         <v>54</v>
       </c>
@@ -2685,7 +2675,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="38" t="s">
         <v>56</v>
       </c>
@@ -2707,7 +2697,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="35" t="s">
         <v>58</v>
       </c>
@@ -2729,7 +2719,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="38" t="s">
         <v>60</v>
       </c>
@@ -2751,7 +2741,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="38" t="s">
         <v>62</v>
       </c>
@@ -2773,7 +2763,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
         <v>64</v>
       </c>
@@ -2795,7 +2785,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="35" t="s">
         <v>66</v>
       </c>
@@ -2817,7 +2807,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="38" t="s">
         <v>68</v>
       </c>
@@ -2839,7 +2829,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="35" t="s">
         <v>70</v>
       </c>
@@ -2861,7 +2851,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="35" t="s">
         <v>72</v>
       </c>
@@ -2881,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="92" t="s">
         <v>179</v>
       </c>
@@ -2895,7 +2885,7 @@
       <c r="F53" s="90"/>
       <c r="G53" s="91"/>
     </row>
-    <row r="54" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="35" t="s">
         <v>74</v>
       </c>
@@ -2917,7 +2907,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="38" t="s">
         <v>76</v>
       </c>
@@ -2939,7 +2929,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="35" t="s">
         <v>78</v>
       </c>
@@ -2961,7 +2951,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="38" t="s">
         <v>80</v>
       </c>
@@ -2983,7 +2973,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="35" t="s">
         <v>82</v>
       </c>
@@ -3005,7 +2995,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="38" t="s">
         <v>84</v>
       </c>
@@ -3027,7 +3017,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="35" t="s">
         <v>86</v>
       </c>
@@ -3049,7 +3039,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="38" t="s">
         <v>88</v>
       </c>
@@ -3071,7 +3061,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="35" t="s">
         <v>90</v>
       </c>
@@ -3093,7 +3083,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="38" t="s">
         <v>92</v>
       </c>
@@ -3115,7 +3105,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="38" t="s">
         <v>92</v>
       </c>
@@ -3132,7 +3122,7 @@
       <c r="F64" s="90"/>
       <c r="G64" s="91"/>
     </row>
-    <row r="65" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="35" t="s">
         <v>94</v>
       </c>
@@ -3154,7 +3144,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="38" t="s">
         <v>96</v>
       </c>
@@ -3176,7 +3166,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="35" t="s">
         <v>98</v>
       </c>
@@ -3198,7 +3188,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="38" t="s">
         <v>100</v>
       </c>
@@ -3220,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="35" t="s">
         <v>102</v>
       </c>
@@ -3242,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="93"/>
       <c r="B70" s="42"/>
       <c r="C70" s="42"/>
@@ -3254,7 +3244,7 @@
       <c r="F70" s="89"/>
       <c r="G70" s="89"/>
     </row>
-    <row r="71" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="94"/>
       <c r="B71" s="95"/>
       <c r="C71" s="95"/>
@@ -3268,7 +3258,7 @@
         <v>23540</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="94"/>
       <c r="B72" s="95"/>
       <c r="C72" s="95"/>
@@ -3282,7 +3272,7 @@
         <v>2824.7999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="94"/>
       <c r="B73" s="95"/>
       <c r="C73" s="95"/>
@@ -3296,42 +3286,42 @@
         <v>26364.799999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="17"/>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
       <c r="E74" s="13"/>
     </row>
-    <row r="75" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="17"/>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
     </row>
-    <row r="76" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="17"/>
       <c r="C76" s="18"/>
       <c r="D76" s="18"/>
       <c r="E76" s="18"/>
     </row>
-    <row r="77" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="17"/>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
     </row>
-    <row r="78" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="17"/>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
     </row>
-    <row r="79" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="102" t="s">
         <v>135</v>
@@ -3340,7 +3330,7 @@
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
     </row>
-    <row r="80" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="84" t="s">
         <v>107</v>
@@ -3351,7 +3341,7 @@
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
     </row>
-    <row r="81" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="44">
         <v>2</v>
@@ -3362,7 +3352,7 @@
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
     </row>
-    <row r="82" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="44">
         <v>1</v>
@@ -3373,7 +3363,7 @@
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
     </row>
-    <row r="83" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="44">
         <v>1</v>
@@ -3384,7 +3374,7 @@
       <c r="D83" s="18"/>
       <c r="E83" s="18"/>
     </row>
-    <row r="84" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="44">
         <v>1</v>
@@ -3395,7 +3385,7 @@
       <c r="D84" s="18"/>
       <c r="E84" s="18"/>
     </row>
-    <row r="85" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="44">
         <v>1</v>
@@ -3406,7 +3396,7 @@
       <c r="D85" s="18"/>
       <c r="E85" s="18"/>
     </row>
-    <row r="86" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="84">
         <f>SUM(B81:B85)</f>
@@ -3416,7 +3406,7 @@
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
     </row>
-    <row r="87" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="44"/>
       <c r="C87" s="87" t="s">
@@ -3425,7 +3415,7 @@
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
     </row>
-    <row r="88" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="44">
         <v>1</v>
@@ -3436,7 +3426,7 @@
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
     </row>
-    <row r="89" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="44">
         <v>1</v>
@@ -3447,7 +3437,7 @@
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
     </row>
-    <row r="90" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="44">
         <v>1</v>
@@ -3458,7 +3448,7 @@
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
     </row>
-    <row r="91" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="44">
         <v>1</v>
@@ -3469,7 +3459,7 @@
       <c r="D91" s="18"/>
       <c r="E91" s="18"/>
     </row>
-    <row r="92" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="44">
         <v>1</v>
@@ -3480,7 +3470,7 @@
       <c r="D92" s="13"/>
       <c r="E92" s="13"/>
     </row>
-    <row r="93" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="44">
         <v>4</v>
@@ -3491,7 +3481,7 @@
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
     </row>
-    <row r="94" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="84">
         <f>SUM(B88:B93)</f>
@@ -3501,7 +3491,7 @@
       <c r="D94" s="13"/>
       <c r="E94" s="13"/>
     </row>
-    <row r="95" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="44"/>
       <c r="C95" s="87" t="s">
@@ -3510,7 +3500,7 @@
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
     </row>
-    <row r="96" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="44">
         <v>1</v>
@@ -3521,7 +3511,7 @@
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
     </row>
-    <row r="97" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="44">
         <v>1</v>
@@ -3532,7 +3522,7 @@
       <c r="D97" s="19"/>
       <c r="E97" s="19"/>
     </row>
-    <row r="98" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="44">
         <v>1</v>
@@ -3543,7 +3533,7 @@
       <c r="D98" s="13"/>
       <c r="E98" s="13"/>
     </row>
-    <row r="99" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="44">
         <v>1</v>
@@ -3554,7 +3544,7 @@
       <c r="D99" s="13"/>
       <c r="E99" s="13"/>
     </row>
-    <row r="100" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="44">
         <v>1</v>
@@ -3565,7 +3555,7 @@
       <c r="D100" s="13"/>
       <c r="E100" s="13"/>
     </row>
-    <row r="101" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="44">
         <v>4</v>
@@ -3576,7 +3566,7 @@
       <c r="D101" s="13"/>
       <c r="E101" s="13"/>
     </row>
-    <row r="102" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="84">
         <f>SUM(B96:B101)</f>
@@ -3586,7 +3576,7 @@
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
     </row>
-    <row r="103" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="44"/>
       <c r="C103" s="87" t="s">
@@ -3595,7 +3585,7 @@
       <c r="D103" s="13"/>
       <c r="E103" s="13"/>
     </row>
-    <row r="104" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="44">
         <v>1</v>
@@ -3606,7 +3596,7 @@
       <c r="D104" s="13"/>
       <c r="E104" s="13"/>
     </row>
-    <row r="105" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="44">
         <v>1</v>
@@ -3617,7 +3607,7 @@
       <c r="D105" s="13"/>
       <c r="E105" s="13"/>
     </row>
-    <row r="106" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="44">
         <v>1</v>
@@ -3626,7 +3616,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="17"/>
       <c r="B107" s="44">
         <v>1</v>
@@ -3637,7 +3627,7 @@
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
     </row>
-    <row r="108" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="17"/>
       <c r="B108" s="44">
         <v>1</v>
@@ -3648,7 +3638,7 @@
       <c r="D108" s="13"/>
       <c r="E108" s="13"/>
     </row>
-    <row r="109" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="17"/>
       <c r="B109" s="42">
         <v>4</v>
@@ -3659,7 +3649,7 @@
       <c r="D109" s="13"/>
       <c r="E109" s="13"/>
     </row>
-    <row r="110" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="17"/>
       <c r="B110" s="88">
         <f>SUM(B104:B109)</f>
@@ -3669,14 +3659,14 @@
       <c r="D110" s="13"/>
       <c r="E110" s="13"/>
     </row>
-    <row r="111" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="17"/>
       <c r="B111" s="20"/>
       <c r="C111" s="21"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13"/>
     </row>
-    <row r="113" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="16">
         <v>1</v>
       </c>
@@ -3685,7 +3675,7 @@
       </c>
       <c r="E113" s="23"/>
     </row>
-    <row r="114" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="16">
         <v>3</v>
       </c>
@@ -3694,7 +3684,7 @@
       </c>
       <c r="E114" s="2"/>
     </row>
-    <row r="115" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="16">
         <v>1</v>
       </c>
@@ -3703,7 +3693,7 @@
       </c>
       <c r="E115" s="2"/>
     </row>
-    <row r="116" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="16">
         <v>1</v>
       </c>
@@ -3712,7 +3702,7 @@
       </c>
       <c r="E116" s="2"/>
     </row>
-    <row r="117" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="16">
         <v>1</v>
       </c>
@@ -3721,7 +3711,7 @@
       </c>
       <c r="D117" s="12"/>
     </row>
-    <row r="118" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="16">
         <v>2</v>
       </c>
@@ -3731,7 +3721,7 @@
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="24">
         <f>SUM(B113:B118)</f>
         <v>9</v>
@@ -3741,13 +3731,13 @@
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="46" t="s">
         <v>171</v>
       </c>
@@ -3757,7 +3747,7 @@
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
     </row>
-    <row r="122" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="8"/>
       <c r="C122" s="47" t="s">
         <v>173</v>
@@ -3765,7 +3755,7 @@
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="8"/>
       <c r="C123" s="47" t="s">
         <v>174</v>
@@ -3773,7 +3763,7 @@
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="8"/>
       <c r="C124" s="47" t="s">
         <v>127</v>
@@ -3781,7 +3771,7 @@
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="8"/>
       <c r="C125" s="47" t="s">
         <v>128</v>
@@ -3789,13 +3779,13 @@
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
     </row>
-    <row r="126" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="8"/>
       <c r="C126" s="47"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
     </row>
-    <row r="127" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="48" t="s">
         <v>175</v>
       </c>
@@ -3805,87 +3795,87 @@
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="48"/>
       <c r="C128" s="49" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="25"/>
       <c r="B129" s="48"/>
       <c r="C129" s="49" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="25"/>
       <c r="B130" s="26"/>
       <c r="C130" s="27"/>
     </row>
-    <row r="131" spans="1:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="25"/>
       <c r="B131" s="26"/>
       <c r="C131" s="27"/>
     </row>
-    <row r="132" spans="1:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="25"/>
       <c r="B132" s="26"/>
       <c r="C132" s="27"/>
     </row>
-    <row r="133" spans="1:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="25"/>
       <c r="B133" s="26"/>
       <c r="C133" s="27"/>
     </row>
-    <row r="134" spans="1:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="28"/>
       <c r="C134" s="29"/>
     </row>
-    <row r="135" spans="1:3" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B135" s="1" t="s">
         <v>167</v>
       </c>
       <c r="C135" s="30"/>
     </row>
-    <row r="138" spans="1:3" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B138" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C138" s="30"/>
     </row>
-    <row r="143" spans="1:3" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="1" t="s">
         <v>169</v>
       </c>
       <c r="C143" s="30"/>
     </row>
-    <row r="145" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="31"/>
       <c r="C145" s="32"/>
     </row>
-    <row r="146" spans="2:3" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B146" s="1" t="s">
         <v>170</v>
       </c>
       <c r="C146" s="30"/>
     </row>
-    <row r="147" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="4"/>
       <c r="C147" s="29"/>
     </row>
-    <row r="148" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="4"/>
       <c r="C148" s="29"/>
     </row>
-    <row r="149" spans="2:3" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B149" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C149" s="33"/>
     </row>
-    <row r="150" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="2"/>
     </row>
   </sheetData>
